--- a/Variable Exploration.xlsx
+++ b/Variable Exploration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryan/Documents/Competitions/AnalyticsVidhya/Janatahack-Machine-Learning-in-Agriculture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E827FF50-C0CC-D342-A30E-9B3D338357FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC46B1E-4C81-094D-9F56-C8E30095A85B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{51C8B682-2803-3B4D-B436-EF5E986666CC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{51C8B682-2803-3B4D-B436-EF5E986666CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
